--- a/RaccoltaRequisiti.xlsx
+++ b/RaccoltaRequisiti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISS_TemaFinale\iss2019TemaFinale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA81E9-A207-4C9A-985B-87C30F79BC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C03CF-7024-4380-82AF-757C0C8B2B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>N. Requisito</t>
   </si>
@@ -800,7 +800,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> presenti tra </t>
+      <t xml:space="preserve"> presenti tra
+ </t>
     </r>
     <r>
       <rPr>
@@ -855,6 +856,9 @@
       </rPr>
       <t>dishwasher</t>
     </r>
+  </si>
+  <si>
+    <t>RACCOLTA REQUISITI</t>
   </si>
 </sst>
 </file>
@@ -893,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,12 +907,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +931,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1214,19 +1214,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I25"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" customWidth="1"/>
+    <col min="2" max="2" width="89.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
@@ -1251,7 +1256,7 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1356,7 +1361,7 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1369,11 +1374,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
@@ -1409,7 +1414,7 @@
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1445,7 +1450,7 @@
       <c r="A25" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>